--- a/TAPERA.xlsx
+++ b/TAPERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9BD3D9-46A7-4B27-8F42-0DD72B7689CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{949967D0-1995-4850-A227-582D3B7453C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1284,7 +1284,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{757D2B29-51A0-4880-AA45-F3BF08FD6704}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{40CFD798-7D79-4C40-9C72-FD781152FBCC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,10 +1314,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFF007E-F906-49CF-AE23-B33ADD486169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435E22FD-1EA8-476E-9D06-8FDD453C9F96}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1355,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4B3D03-8788-4CB0-81B5-A42467CD5F1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D9D977-D7A4-49DF-83F9-A925690E4EE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02214A2-9B15-4A9C-BAFB-65F30F79BD24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839DD792-476E-419B-BC16-34D11A8AFFA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8932496E-5927-C0F1-1EC8-5B35B01A56C2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5977D6-47B1-CC6F-DF51-D1F1961BE281}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA01C0C-F8C8-B222-EA86-F895965A7E5D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB0008C-62AD-8E79-E10C-FF0E119E43D5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1505,7 +1505,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E0CA6A-3686-4234-7291-DEEE53282743}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69567609-90BE-89CB-74A5-291501F78702}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61DA7FF-0A1C-B3AB-2A8E-33313E0C4BF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BDA7B6-DD8A-78D5-187E-E17F203C6639}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1567,7 +1567,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD02943-721D-C822-0E05-D205479F00E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B8569D-5E9F-AF57-FD87-0D9757D84C2D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1610,7 +1610,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665FD7E9-D158-494E-9797-B5D11345DCC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0877D884-B35A-4931-9869-A7B50F577A66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1648,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119B3732-434B-4BFC-8F1F-04E4C16B107E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E59AC4F-A734-443A-BD1E-4E5BB14C077C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1691,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B02433-D236-4BA8-B6EB-8A8DD7872DBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2BC667-2D8D-459A-B567-0E539A869514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3447D5DE-F859-4766-97AF-714AFDA26FD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3362C7BB-8492-4F22-AB0B-DA85665319F6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/TAPERA.xlsx
+++ b/TAPERA.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{949967D0-1995-4850-A227-582D3B7453C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A11D655-E1F9-48F6-99E3-4EB5A9217810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="320">
   <si>
     <t>COMARCA</t>
   </si>
@@ -988,12 +987,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,27 +1257,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{40CFD798-7D79-4C40-9C72-FD781152FBCC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{AEAC9211-0DEA-4C4D-A9F5-DC773169812C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,10 +1292,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435E22FD-1EA8-476E-9D06-8FDD453C9F96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A45034-C531-4BB6-8947-A5192D672178}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1333,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D9D977-D7A4-49DF-83F9-A925690E4EE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FBA374-DC2A-4F67-ADCB-5FCEC1B752F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1396,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839DD792-476E-419B-BC16-34D11A8AFFA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6543F53E-B766-4B27-BFEB-2FF44DBC3467}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1415,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5977D6-47B1-CC6F-DF51-D1F1961BE281}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF366F9-1EFB-476B-F582-6BF8221DDA42}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1486,7 +1464,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB0008C-62AD-8E79-E10C-FF0E119E43D5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894015CA-16A9-809E-A0DE-2661F4433399}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1505,7 +1483,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69567609-90BE-89CB-74A5-291501F78702}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41E3486-2322-5CEF-0B56-10665DAEAFAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1514,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BDA7B6-DD8A-78D5-187E-E17F203C6639}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EB3FFD-8345-49A7-3821-85CA4D38C758}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1567,7 +1545,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B8569D-5E9F-AF57-FD87-0D9757D84C2D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D71FAB9-CEE4-AD8E-3F70-CBAEA66150C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1610,7 +1588,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0877D884-B35A-4931-9869-A7B50F577A66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A14470C-B801-4C19-BB27-AA9AB66AC9D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1626,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E59AC4F-A734-443A-BD1E-4E5BB14C077C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DC4140-B92F-4DD5-911A-3FE881D08E42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1669,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2BC667-2D8D-459A-B567-0E539A869514}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339FF19F-E5F4-41C6-AED7-E8969186C587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3362C7BB-8492-4F22-AB0B-DA85665319F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A79335-BC29-48B2-9DE2-4539AAD140D7}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2016,98 +1994,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5694,52 +5672,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="36">
-        <v>57</v>
-      </c>
-      <c r="C2" s="34">
-        <v>3.7693426795397428E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/TAPERA.xlsx
+++ b/TAPERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A11D655-E1F9-48F6-99E3-4EB5A9217810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26BF9159-8109-4E54-952F-A3D94D3EC668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,7 +1262,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{AEAC9211-0DEA-4C4D-A9F5-DC773169812C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CB50C7C0-A994-4951-B5C9-7E793BD8EC2D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1292,10 +1292,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A45034-C531-4BB6-8947-A5192D672178}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE91E91-10C3-45A5-AD13-46A5DD0AD656}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1333,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FBA374-DC2A-4F67-ADCB-5FCEC1B752F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5533DA81-0DC0-4D52-B9F0-3FE7C611117D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1396,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6543F53E-B766-4B27-BFEB-2FF44DBC3467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4529B68B-E8E6-4F7D-8026-291F7DE581C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1415,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF366F9-1EFB-476B-F582-6BF8221DDA42}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706EEB91-0437-4F57-05F2-FB5B17FC71E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1464,7 +1464,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894015CA-16A9-809E-A0DE-2661F4433399}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8DABAA-B811-98BC-2280-B0079A621BC6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1483,7 +1483,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41E3486-2322-5CEF-0B56-10665DAEAFAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00689838-6D69-CD7D-F7B6-ED5FEEDD2981}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EB3FFD-8345-49A7-3821-85CA4D38C758}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC70DC3-EA40-B329-27A8-2A0C421F1520}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D71FAB9-CEE4-AD8E-3F70-CBAEA66150C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1826AC-8922-C570-0FEC-A00BACB59885}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1588,7 +1588,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A14470C-B801-4C19-BB27-AA9AB66AC9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D40D10-0290-42AD-AE21-9ACF862B9519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1626,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DC4140-B92F-4DD5-911A-3FE881D08E42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072FA4AA-9D0C-4311-95E7-78E84446541A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,50 +1651,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339FF19F-E5F4-41C6-AED7-E8969186C587}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1982,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A79335-BC29-48B2-9DE2-4539AAD140D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6708CD3F-4BFC-4740-94BC-55E8738A99A3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
